--- a/data/20231011_E_coli_counts.xlsx
+++ b/data/20231011_E_coli_counts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conforsh/switchdrive/Institution/Manuscripts/esblec-monitor-ww-21-22/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conforsh/Desktop/esblec-monitor-ww-21-22/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A818B-A160-A04A-8C50-E7E564A1F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FB52C-5C63-5143-B8BF-E660DA687C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="760" windowWidth="11640" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="17640" windowHeight="25840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecoli_counts" sheetId="2" r:id="rId1"/>
@@ -14710,7 +14710,7 @@
         <v>15817</v>
       </c>
       <c r="N235" s="1">
-        <f t="shared" ref="N235:N266" si="37">G235*10^4*M235/C235</f>
+        <f t="shared" ref="N235:N254" si="37">G235*10^4*M235/C235</f>
         <v>26276629032.258064</v>
       </c>
       <c r="O235" s="1">
